--- a/learn/importing/mydigitalstructure-learn-import-1.xlsx
+++ b/learn/importing/mydigitalstructure-learn-import-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markbyers/ibCom/lab/mydigitalstructure-sdk-js/examples/importing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markbyers/ibCom/lab/mydigitalstructure-sdk-js/learn/importing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0A228-5F7A-2745-AD2F-9B2539CEA1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7541A5B8-7515-6F49-A3BA-C99A0EE0E0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{A75BD620-D3D2-614B-AC89-036C8FFCA316}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="First_Name">Sheet1!$A$2</definedName>
     <definedName name="Name">Sheet1!$A$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
